--- a/doc/eos/02.설계/스케줄러 테스트 시나리오.xlsx
+++ b/doc/eos/02.설계/스케줄러 테스트 시나리오.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fframe\workspace\spark_scala\doc\eos\02.설계\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" tabRatio="893"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>커맨드라인 우지 수행 잡ID를 Kill 할수 있으나, 우지웹UI에서 실행중 작업 Kill 기능은 미지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실시간잡을 ozzie 프로세스 단위로 실시간 수행 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +83,6 @@
   </si>
   <si>
     <t>실시간잡을 1분 간격으로 수행하는 것은 우지로그의 과다한 생성을 방지하기 위하여 Crontab를 이용하며, Crontab 기능을 점검한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,11 +99,28 @@
  3.3 action21 : ExecPost (sleep 10분)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crontab 명령어를 이용해 에디터 편집 및 간단한 쉘 스크립트 파일 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커맨드라인 우지 수행 잡ID를 Kill 할수 있으나, 우지웹UI에서 실행중 작업 Kill 기능은 미지원
+# oozie job -oozie http://localhost:11000/oozie -kill [job ID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -311,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -505,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -592,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -604,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -618,29 +622,33 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
